--- a/WSC/Test Report/Procurement & Inventory/WSC Prcurement & Inventory_Serial No and Batch.xlsx
+++ b/WSC/Test Report/Procurement & Inventory/WSC Prcurement & Inventory_Serial No and Batch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330"/>
+    <workbookView windowWidth="27945" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC1_Serial No" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="125">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -39,6 +39,12 @@
     <t>Reviewed By</t>
   </si>
   <si>
+    <t>Executed By</t>
+  </si>
+  <si>
+    <t>Abhishek Anand</t>
+  </si>
+  <si>
     <t>S#</t>
   </si>
   <si>
@@ -52,6 +58,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>url</t>
     </r>
     <r>
@@ -67,6 +81,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>User</t>
     </r>
     <r>
@@ -103,6 +125,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>User</t>
     </r>
     <r>
@@ -1237,7 +1267,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1257,10 +1287,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1271,18 +1298,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1302,6 +1323,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1837,10 +1861,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1885,8 +1909,12 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1894,16 +1922,16 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -1911,504 +1939,508 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="11"/>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="11"/>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="12" t="s">
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="C11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="D11" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
+      <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A12" s="13">
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="11"/>
+      <c r="B12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A13" s="11">
         <v>1</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="B13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A13" s="13">
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A14" s="11">
         <v>2</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A14" s="13">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A15" s="11">
         <v>3</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A15" s="13">
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="60" spans="1:6">
+      <c r="A16" s="11">
         <v>4</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A16" s="13">
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A17" s="11">
         <v>5</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A17" s="13">
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A18" s="11">
         <v>6</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A18" s="13">
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A19" s="11">
         <v>7</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A19" s="13">
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A20" s="11">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A20" s="13">
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A21" s="11">
         <v>9</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A21" s="13">
+      <c r="C21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="60" spans="1:6">
+      <c r="A22" s="11">
         <v>10</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A22" s="13">
+      <c r="C22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A23" s="11">
         <v>11</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A23" s="13">
+      <c r="C23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="60" spans="1:6">
+      <c r="A24" s="11">
         <v>12</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="C24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A24" s="13">
+      <c r="E24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A25" s="11">
         <v>13</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="75" spans="1:6">
-      <c r="A25" s="13">
+    </row>
+    <row r="26" s="1" customFormat="1" ht="75" spans="1:6">
+      <c r="A26" s="11">
         <v>14</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="75" spans="1:6">
-      <c r="A26" s="13">
-        <v>15</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>26</v>
+      <c r="E26" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A27" s="13">
-        <v>16</v>
+    <row r="27" s="1" customFormat="1" ht="75" spans="1:6">
+      <c r="A27" s="11">
+        <v>15</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A28" s="11">
+        <v>16</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A28" s="13">
+      <c r="C28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A29" s="11">
         <v>17</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A29" s="13">
+      <c r="C29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A30" s="11">
         <v>18</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A30" s="13">
+      <c r="C30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A31" s="11">
         <v>19</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:1">
-      <c r="A31" s="16"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:6">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17" t="s">
+      <c r="C31" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18" t="s">
+      <c r="D31" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:1">
+      <c r="A32" s="13"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:6">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="C33" s="14"/>
+      <c r="D33" s="15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="20" t="s">
+      <c r="E33" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="F33" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="21" t="s">
+    </row>
+    <row r="34" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A34" s="13"/>
+      <c r="B34" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="3">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="20" t="s">
+      <c r="C34" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>60</v>
+      <c r="E34" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F34" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
-      <c r="A35" s="16"/>
+    <row r="35" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A35" s="13"/>
+      <c r="B35" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="3">
+        <v>59</v>
+      </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:1">
-      <c r="A36" s="16"/>
+      <c r="A36" s="13"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:1">
-      <c r="A37" s="16"/>
+      <c r="A37" s="13"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:1">
+      <c r="A38" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2420,8 +2452,8 @@
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -2440,13 +2472,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -2466,8 +2498,12 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -2475,16 +2511,16 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -2492,41 +2528,41 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="11"/>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="11"/>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2542,29 +2578,29 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
-        <v>94</v>
+      <c r="A11" s="11"/>
+      <c r="B11" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2572,310 +2608,306 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>95</v>
+      <c r="B12" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>26</v>
+        <v>101</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>26</v>
+        <v>104</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A16" s="13">
+      <c r="A16" s="11">
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>26</v>
+        <v>40</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>26</v>
+        <v>107</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A18" s="13">
+      <c r="A18" s="11">
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>26</v>
+        <v>110</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A19" s="13">
+      <c r="A19" s="11">
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>26</v>
+        <v>113</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A20" s="13">
+      <c r="A20" s="11">
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>26</v>
+        <v>116</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A21" s="13">
+      <c r="A21" s="11">
         <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>26</v>
+        <v>119</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A22" s="13">
+      <c r="A22" s="11">
         <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>26</v>
+        <v>121</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A23" s="13">
+      <c r="A23" s="11">
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>26</v>
+        <v>124</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A24" s="13">
+      <c r="A24" s="11">
         <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>26</v>
+        <v>83</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:1">
-      <c r="A25" s="16"/>
+      <c r="A25" s="13"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:6">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="19" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="15" t="s">
         <v>85</v>
       </c>
+      <c r="E26" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A27" s="16"/>
-      <c r="B27" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="21" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>60</v>
+      <c r="C27" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F27" s="3">
         <v>59</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A28" s="16"/>
-      <c r="B28" s="20" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>60</v>
+      <c r="D28" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F28" s="3">
         <v>59</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:1">
-      <c r="A29" s="16"/>
+      <c r="A29" s="13"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:1">
-      <c r="A30" s="16"/>
+      <c r="A30" s="13"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:1">
-      <c r="A31" s="16"/>
+      <c r="A31" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B26:C26"/>
   </mergeCells>
